--- a/resultados_retenciones.xlsx
+++ b/resultados_retenciones.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,28 +534,28 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>30-50930070-0</t>
+          <t>30-50012088-2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
+          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
         <v>2023</v>
       </c>
       <c r="F2" t="n">
-        <v>32286272</v>
+        <v>32632400</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1400014057</v>
+        <v>100000009022</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>476100.27</v>
+        <v>3724056</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>4761</v>
+        <v>111721.68</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>45100</v>
+        <v>45152</v>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
@@ -597,19 +597,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
         <v>2023</v>
       </c>
       <c r="F3" t="n">
-        <v>32471496</v>
+        <v>32839986</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1400000113</v>
+        <v>1400003813</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -622,16 +622,16 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>2461139.7</v>
+        <v>44884854</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>24611.4</v>
+        <v>448848.54</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>45114</v>
+        <v>45198</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -642,28 +642,28 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>30-50012088-2</t>
+          <t>30-50930070-0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
+          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
         <v>2023</v>
       </c>
       <c r="F4" t="n">
-        <v>32478453</v>
+        <v>32839986</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>100000008940</v>
+        <v>1400003813</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>4143222</v>
+        <v>10153752</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>124296.66</v>
+        <v>609225.12</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>45126</v>
+        <v>45198</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
@@ -696,28 +696,28 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>30-50930070-0</t>
+          <t>30-50012088-2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
+          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>2023</v>
       </c>
       <c r="F5" t="n">
-        <v>32471496</v>
+        <v>33032641</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1400000894</v>
+        <v>200000032658</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -730,16 +730,16 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>10216735.8</v>
+        <v>504000</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>102167.36</v>
+        <v>15120</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>45128</v>
+        <v>45204</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -750,28 +750,28 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30-50012088-2</t>
+          <t>20-22661017-1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
+          <t>ARLETTAZ, EDUARDO FABIAN</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>2023</v>
       </c>
       <c r="F6" t="n">
-        <v>32632400</v>
+        <v>33047620</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>100000009022</v>
+        <v>2715</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -784,16 +784,16 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>3724056</v>
+        <v>1575195</v>
       </c>
       <c r="L6" t="n">
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>111721.68</v>
+        <v>47255.85</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>45152</v>
+        <v>45218</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -804,28 +804,28 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>30-50930070-0</t>
+          <t>20-22661017-1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
+          <t>ARLETTAZ, EDUARDO FABIAN</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
         <v>2023</v>
       </c>
       <c r="F7" t="n">
-        <v>32655765</v>
+        <v>33156250</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1400002017</v>
+        <v>2755</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -838,16 +838,16 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>12556793.92</v>
+        <v>730695.67</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>125567.94</v>
+        <v>21920.87</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>45156</v>
+        <v>45245</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -858,28 +858,28 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>30-50279317-5</t>
+          <t>30-50350872-5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ARCOR S A I C</t>
+          <t>MONSANTO ARGENTINA SRL</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
         <v>2023</v>
       </c>
       <c r="F8" t="n">
-        <v>32875661</v>
+        <v>33219911</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>230800031981</v>
+        <v>8423</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -888,20 +888,20 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1 - Sector Oficial</t>
+          <t>4 - Sector privado</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>10624423.08</v>
+        <v>768205</v>
       </c>
       <c r="L8" t="n">
-        <v>0.13</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>13811.75</v>
+        <v>15364.1</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>45173</v>
+        <v>45251</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
@@ -912,28 +912,28 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>30-50930070-0</t>
+          <t>30-50350872-5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
+          <t>MONSANTO ARGENTINA SRL</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
         <v>2023</v>
       </c>
       <c r="F9" t="n">
-        <v>32839986</v>
+        <v>33219911</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1400003813</v>
+        <v>8433</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -946,669 +946,21 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>44884854</v>
+        <v>813373</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>448848.54</v>
+        <v>16267.46</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>45198</v>
+        <v>45258</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>30-50930070-0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F10" t="n">
-        <v>32839986</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1400003813</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>4 - Sector privado</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>10153752</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>609225.12</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>45198</v>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>30-50012088-2</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F11" t="n">
-        <v>33032641</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>200000032658</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>4 - Sector privado</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>504000</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3</v>
-      </c>
-      <c r="M11" t="n">
-        <v>15120</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>45204</v>
-      </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>30-50930070-0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F12" t="n">
-        <v>33041686</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1400004171</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>4 - Sector privado</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>2271234</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>22712.34</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>45205</v>
-      </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>30-50350872-5</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>MONSANTO ARGENTINA SRL</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F13" t="n">
-        <v>33062331</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8348</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>4 - Sector privado</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>3144771.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" t="n">
-        <v>62895.43</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>45217</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>20-22661017-1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ARLETTAZ, EDUARDO FABIAN</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>10</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F14" t="n">
-        <v>33047620</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2715</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>4 - Sector privado</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>1575195</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>47255.85</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>45218</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>20-22661017-1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ARLETTAZ, EDUARDO FABIAN</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>11</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F15" t="n">
-        <v>33156250</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2755</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>4 - Sector privado</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>730695.67</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3</v>
-      </c>
-      <c r="M15" t="n">
-        <v>21920.87</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>45245</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>30-50930070-0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>11</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F16" t="n">
-        <v>33218284</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1400005867</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>4 - Sector privado</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>5565954.75</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>55659.55</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>45245</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>30-50012088-2</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>11</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F17" t="n">
-        <v>33220601</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100000009305</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>4 - Sector privado</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>847080</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3</v>
-      </c>
-      <c r="M17" t="n">
-        <v>25412.4</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>45246</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>30-50350872-5</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>MONSANTO ARGENTINA SRL</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>11</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F18" t="n">
-        <v>33219911</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8423</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>4 - Sector privado</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>768205</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>15364.1</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>45251</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>30-50012088-2</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F19" t="n">
-        <v>33220601</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100000009326</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>4 - Sector privado</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>1802304</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3</v>
-      </c>
-      <c r="M19" t="n">
-        <v>54069.12</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>30-50350872-5</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>MONSANTO ARGENTINA SRL</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>11</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F20" t="n">
-        <v>33219911</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8433</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>4 - Sector privado</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>813373</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>16267.46</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>45258</v>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>30-50012088-2</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>11</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F21" t="n">
-        <v>33220601</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100000009344</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>4 - Sector privado</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>2462400</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3</v>
-      </c>
-      <c r="M21" t="n">
-        <v>73872</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>45260</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1621,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1721,6 +1073,654 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>30-50930070-0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F2" t="n">
+        <v>32286272</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1400014057</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>4 - Sector privado</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>476100.27</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4761</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>30-50930070-0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F3" t="n">
+        <v>32471496</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1400000113</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>4 - Sector privado</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>2461139.7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>24611.4</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>45114</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>30-50012088-2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F4" t="n">
+        <v>32478453</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100000008940</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>4 - Sector privado</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>4143222</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>124296.66</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>45126</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30-50930070-0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F5" t="n">
+        <v>32471496</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1400000894</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>4 - Sector privado</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>10216735.8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>102167.36</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>45128</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>30-50930070-0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32655765</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1400002017</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>4 - Sector privado</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>-12556793.92</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-125567.94</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>45156</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>30-50279317-5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ARCOR S A I C</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32875661</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>230800031981</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1 - Sector Oficial</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>10624423.08</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M7" t="n">
+        <v>13811.75</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>30-50930070-0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33041686</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1400004171</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>4 - Sector privado</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>2271234</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>22712.34</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>30-50350872-5</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MONSANTO ARGENTINA SRL</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33062331</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8348</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>4 - Sector privado</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>3144771.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>62895.43</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30-50930070-0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F10" t="n">
+        <v>33218284</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1400005867</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>4 - Sector privado</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>5565954.75</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>55659.55</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>30-50012088-2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F11" t="n">
+        <v>33220601</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100000009305</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>4 - Sector privado</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>847080</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>25412.4</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>30-50012088-2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F12" t="n">
+        <v>33220601</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100000009326</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>4 - Sector privado</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1802304</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" t="n">
+        <v>54069.12</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>30-50012088-2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F13" t="n">
+        <v>33220601</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100000009344</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>4 - Sector privado</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>2462400</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>73872</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resultados_retenciones.xlsx
+++ b/resultados_retenciones.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,28 +534,28 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>30-50012088-2</t>
+          <t>30-50930070-0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
+          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>2023</v>
       </c>
       <c r="F2" t="n">
-        <v>32632400</v>
+        <v>32286272</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>100000009022</v>
+        <v>1400014057</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>3724056</v>
+        <v>476100.27</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>111721.68</v>
+        <v>4761</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>45152</v>
+        <v>45100</v>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
@@ -588,28 +588,28 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30-50930070-0</t>
+          <t>30-50012088-2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
+          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
         <v>2023</v>
       </c>
       <c r="F3" t="n">
-        <v>32839986</v>
+        <v>32632400</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1400003813</v>
+        <v>100000009022</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -622,16 +622,16 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>44884854</v>
+        <v>3724056</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>448848.54</v>
+        <v>111721.68</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>45198</v>
+        <v>45152</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -676,13 +676,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>10153752</v>
+        <v>44884854</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>609225.12</v>
+        <v>448848.54</v>
       </c>
       <c r="N4" s="2" t="n">
         <v>45198</v>
@@ -696,28 +696,28 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>30-50012088-2</t>
+          <t>30-50930070-0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
+          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
         <v>2023</v>
       </c>
       <c r="F5" t="n">
-        <v>33032641</v>
+        <v>32839986</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>200000032658</v>
+        <v>1400003813</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -730,16 +730,16 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>504000</v>
+        <v>10153752</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>15120</v>
+        <v>609225.12</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>45204</v>
+        <v>45198</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -750,12 +750,12 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20-22661017-1</t>
+          <t>30-50012088-2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ARLETTAZ, EDUARDO FABIAN</t>
+          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -765,13 +765,13 @@
         <v>2023</v>
       </c>
       <c r="F6" t="n">
-        <v>33047620</v>
+        <v>33032641</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2715</v>
+        <v>200000032658</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -784,16 +784,16 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1575195</v>
+        <v>504000</v>
       </c>
       <c r="L6" t="n">
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>47255.85</v>
+        <v>15120</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>45218</v>
+        <v>45204</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -813,19 +813,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
         <v>2023</v>
       </c>
       <c r="F7" t="n">
-        <v>33156250</v>
+        <v>33047620</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2755</v>
+        <v>2715</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -838,16 +838,16 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>730695.67</v>
+        <v>1575195</v>
       </c>
       <c r="L7" t="n">
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>21920.87</v>
+        <v>47255.85</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>45245</v>
+        <v>45218</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -858,12 +858,12 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>30-50350872-5</t>
+          <t>20-22661017-1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MONSANTO ARGENTINA SRL</t>
+          <t>ARLETTAZ, EDUARDO FABIAN</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -873,13 +873,13 @@
         <v>2023</v>
       </c>
       <c r="F8" t="n">
-        <v>33219911</v>
+        <v>33156250</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>8423</v>
+        <v>2755</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -892,16 +892,16 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>768205</v>
+        <v>730695.67</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>15364.1</v>
+        <v>21920.87</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>45251</v>
+        <v>45245</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>8433</v>
+        <v>8423</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -946,21 +946,75 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>813373</v>
+        <v>768205</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>16267.46</v>
+        <v>15364.1</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>45258</v>
+        <v>45251</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30-50350872-5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MONSANTO ARGENTINA SRL</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F10" t="n">
+        <v>33219911</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8433</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>4 - Sector privado</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>813373</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>16267.46</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -973,7 +1027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,19 +1140,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
         <v>2023</v>
       </c>
       <c r="F2" t="n">
-        <v>32286272</v>
+        <v>32471496</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1400014057</v>
+        <v>1400000113</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -1111,16 +1165,16 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>476100.27</v>
+        <v>2461139.7</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>4761</v>
+        <v>24611.4</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>45100</v>
+        <v>45114</v>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
@@ -1131,12 +1185,12 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30-50930070-0</t>
+          <t>30-50012088-2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
+          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1146,13 +1200,13 @@
         <v>2023</v>
       </c>
       <c r="F3" t="n">
-        <v>32471496</v>
+        <v>32478453</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1400000113</v>
+        <v>100000008940</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -1165,16 +1219,16 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>2461139.7</v>
+        <v>4143222</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>24611.4</v>
+        <v>124296.66</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>45114</v>
+        <v>45126</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -1185,12 +1239,12 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>30-50012088-2</t>
+          <t>30-50930070-0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
+          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -1200,13 +1254,13 @@
         <v>2023</v>
       </c>
       <c r="F4" t="n">
-        <v>32478453</v>
+        <v>32471496</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>100000008940</v>
+        <v>1400000894</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1219,16 +1273,16 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>4143222</v>
+        <v>10216735.8</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>124296.66</v>
+        <v>102167.36</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>45126</v>
+        <v>45128</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
@@ -1248,19 +1302,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>2023</v>
       </c>
       <c r="F5" t="n">
-        <v>32471496</v>
+        <v>32655765</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1400000894</v>
+        <v>1400002017</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -1273,16 +1327,16 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>10216735.8</v>
+        <v>-12556793.92</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>102167.36</v>
+        <v>-125567.94</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>45128</v>
+        <v>45156</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -1293,28 +1347,28 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30-50930070-0</t>
+          <t>30-50279317-5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
+          <t>ARCOR S A I C</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
         <v>2023</v>
       </c>
       <c r="F6" t="n">
-        <v>32655765</v>
+        <v>32875661</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1400002017</v>
+        <v>230800031981</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -1323,20 +1377,20 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>4 - Sector privado</t>
+          <t>1 - Sector Oficial</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-12556793.92</v>
+        <v>10624423.08</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="M6" t="n">
-        <v>-125567.94</v>
+        <v>13811.75</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>45156</v>
+        <v>45173</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -1347,28 +1401,28 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>30-50279317-5</t>
+          <t>30-50930070-0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ARCOR S A I C</t>
+          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
         <v>2023</v>
       </c>
       <c r="F7" t="n">
-        <v>32875661</v>
+        <v>33041686</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>230800031981</v>
+        <v>1400004171</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1377,20 +1431,20 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1 - Sector Oficial</t>
+          <t>4 - Sector privado</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>10624423.08</v>
+        <v>2271234</v>
       </c>
       <c r="L7" t="n">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>13811.75</v>
+        <v>22712.34</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>45173</v>
+        <v>45205</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -1401,12 +1455,12 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>30-50930070-0</t>
+          <t>30-50350872-5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
+          <t>MONSANTO ARGENTINA SRL</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1416,13 +1470,13 @@
         <v>2023</v>
       </c>
       <c r="F8" t="n">
-        <v>33041686</v>
+        <v>33062331</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1400004171</v>
+        <v>8348</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1435,16 +1489,16 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>2271234</v>
+        <v>3144771.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>22712.34</v>
+        <v>62895.43</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>45205</v>
+        <v>45217</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
@@ -1455,28 +1509,28 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>30-50350872-5</t>
+          <t>30-50930070-0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MONSANTO ARGENTINA SRL</t>
+          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
         <v>2023</v>
       </c>
       <c r="F9" t="n">
-        <v>33062331</v>
+        <v>33218284</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>8348</v>
+        <v>1400005867</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1489,16 +1543,16 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>3144771.5</v>
+        <v>5565954.75</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>62895.43</v>
+        <v>55659.55</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>45217</v>
+        <v>45245</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
@@ -1509,12 +1563,12 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>30-50930070-0</t>
+          <t>30-50012088-2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CRESUD S A COMERCIAL INMOBILIARIA FINANCIERA Y AGROPECUARIA</t>
+          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1524,13 +1578,13 @@
         <v>2023</v>
       </c>
       <c r="F10" t="n">
-        <v>33218284</v>
+        <v>33220601</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1400005867</v>
+        <v>100000009305</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1543,16 +1597,16 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>5565954.75</v>
+        <v>847080</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>55659.55</v>
+        <v>25412.4</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>45245</v>
+        <v>45246</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
@@ -1584,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>100000009305</v>
+        <v>100000009326</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1597,16 +1651,16 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>847080</v>
+        <v>1802304</v>
       </c>
       <c r="L11" t="n">
         <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>25412.4</v>
+        <v>54069.12</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>45246</v>
+        <v>45257</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -1638,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>100000009326</v>
+        <v>100000009344</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1651,76 +1705,22 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>1802304</v>
+        <v>2462400</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>54069.12</v>
+        <v>73872</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>45257</v>
+        <v>45260</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>30-50012088-2</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ASOCIACION DE COOPERATIVAS ARGENTINAS COOP LTDA</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>11</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F13" t="n">
-        <v>33220601</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100000009344</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>4 - Sector privado</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>2462400</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3</v>
-      </c>
-      <c r="M13" t="n">
-        <v>73872</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>45260</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
